--- a/week 6 (Lab 3- Time series & regression)/trends_solved.xlsx
+++ b/week 6 (Lab 3- Time series & regression)/trends_solved.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="250" documentId="8_{EE41B2C5-BCCF-4856-96F1-65C2913C628B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8785C392-FADD-4924-87F3-B542387DC3AF}"/>
   <bookViews>
-    <workbookView xWindow="7752" yWindow="0" windowWidth="15384" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8745" yWindow="4065" windowWidth="18000" windowHeight="9360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Part 1" sheetId="1" r:id="rId1"/>
@@ -281,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -305,14 +305,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
@@ -2989,10 +2981,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3262,20 +3250,20 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="4"/>
-    <col min="2" max="2" width="9.109375" style="8"/>
-    <col min="3" max="3" width="15.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" style="3" customWidth="1"/>
-    <col min="7" max="8" width="9.109375" style="3"/>
-    <col min="9" max="9" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="9.140625" style="8"/>
+    <col min="3" max="3" width="15.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="3"/>
+    <col min="9" max="9" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3301,7 +3289,7 @@
         <v>2.0804358428326238E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1965</v>
       </c>
@@ -3327,7 +3315,7 @@
         <v>2.0920783003956608E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1966</v>
       </c>
@@ -3347,7 +3335,7 @@
         <v>67.861822395133203</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1967</v>
       </c>
@@ -3378,7 +3366,7 @@
       <c r="O4"/>
       <c r="P4"/>
     </row>
-    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1968</v>
       </c>
@@ -3407,7 +3395,7 @@
       <c r="O5"/>
       <c r="P5"/>
     </row>
-    <row r="6" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1969</v>
       </c>
@@ -3438,7 +3426,7 @@
       <c r="O6"/>
       <c r="P6"/>
     </row>
-    <row r="7" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1970</v>
       </c>
@@ -3471,7 +3459,7 @@
       <c r="O7"/>
       <c r="P7"/>
     </row>
-    <row r="8" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1971</v>
       </c>
@@ -3504,7 +3492,7 @@
       <c r="O8"/>
       <c r="P8"/>
     </row>
-    <row r="9" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1972</v>
       </c>
@@ -3537,7 +3525,7 @@
       <c r="O9"/>
       <c r="P9"/>
     </row>
-    <row r="10" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1973</v>
       </c>
@@ -3570,7 +3558,7 @@
       <c r="O10"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>1974</v>
       </c>
@@ -3603,7 +3591,7 @@
       <c r="O11"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>1975</v>
       </c>
@@ -3632,7 +3620,7 @@
       <c r="O12"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>1976</v>
       </c>
@@ -3663,7 +3651,7 @@
       <c r="O13"/>
       <c r="P13"/>
     </row>
-    <row r="14" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>1977</v>
       </c>
@@ -3702,7 +3690,7 @@
       <c r="O14"/>
       <c r="P14"/>
     </row>
-    <row r="15" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>1978</v>
       </c>
@@ -3743,7 +3731,7 @@
       <c r="O15"/>
       <c r="P15"/>
     </row>
-    <row r="16" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>1979</v>
       </c>
@@ -3780,7 +3768,7 @@
       <c r="O16"/>
       <c r="P16"/>
     </row>
-    <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>1980</v>
       </c>
@@ -3815,7 +3803,7 @@
       <c r="O17"/>
       <c r="P17"/>
     </row>
-    <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>1981</v>
       </c>
@@ -3844,7 +3832,7 @@
       <c r="O18"/>
       <c r="P18"/>
     </row>
-    <row r="19" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>1982</v>
       </c>
@@ -3889,7 +3877,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>1983</v>
       </c>
@@ -3936,7 +3924,7 @@
         <v>-33.185780881747462</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>1984</v>
       </c>
@@ -3983,7 +3971,7 @@
         <v>2.1107402872280048E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>1985</v>
       </c>
@@ -4012,7 +4000,7 @@
       <c r="O22"/>
       <c r="P22"/>
     </row>
-    <row r="23" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>1986</v>
       </c>
@@ -4041,7 +4029,7 @@
       <c r="O23"/>
       <c r="P23"/>
     </row>
-    <row r="24" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>1987</v>
       </c>
@@ -4070,7 +4058,7 @@
       <c r="O24"/>
       <c r="P24"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>1988</v>
       </c>
@@ -4090,7 +4078,7 @@
         <v>1220.646438199308</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>1989</v>
       </c>
@@ -4110,7 +4098,7 @@
         <v>308.5152230922904</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>1990</v>
       </c>
@@ -4130,7 +4118,7 @@
         <v>49.781102937107796</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>1991</v>
       </c>
@@ -4150,7 +4138,7 @@
         <v>0.46209236566985773</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>1992</v>
       </c>
@@ -4170,7 +4158,7 @@
         <v>7.3958692879296439</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>1993</v>
       </c>
@@ -4190,7 +4178,7 @@
         <v>128.01452584528323</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>1994</v>
       </c>
@@ -4210,7 +4198,7 @@
         <v>15.289078053234785</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>1995</v>
       </c>
@@ -4230,7 +4218,7 @@
         <v>1723.9387241217423</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>1996</v>
       </c>
@@ -4250,7 +4238,7 @@
         <v>975.72011006270282</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>1997</v>
       </c>
@@ -4270,7 +4258,7 @@
         <v>115.95141574230155</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>1998</v>
       </c>
@@ -4290,7 +4278,7 @@
         <v>1090.834947424853</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>1999</v>
       </c>
@@ -4310,7 +4298,7 @@
         <v>552.18549873404982</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>2000</v>
       </c>
@@ -4330,7 +4318,7 @@
         <v>193.83711777554595</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>2001</v>
       </c>
@@ -4350,7 +4338,7 @@
         <v>550.57331918029524</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>2002</v>
       </c>
@@ -4370,7 +4358,7 @@
         <v>345.98189261883755</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>2003</v>
       </c>
@@ -4390,7 +4378,7 @@
         <v>384.13499405019775</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>2004</v>
       </c>
@@ -4410,7 +4398,7 @@
         <v>264.04877006885351</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>2005</v>
       </c>
@@ -4441,22 +4429,22 @@
   <dimension ref="A1:Y79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="3"/>
-    <col min="2" max="2" width="11.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="11.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4479,7 +4467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1995</v>
       </c>
@@ -4516,7 +4504,7 @@
       <c r="X2"/>
       <c r="Y2"/>
     </row>
-    <row r="3" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1996</v>
       </c>
@@ -4536,7 +4524,7 @@
         <v>31.688061464651579</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" ref="F3:F12" si="3">$I$42+($I$43*A3)</f>
+        <f t="shared" ref="F3:F11" si="3">$I$42+($I$43*A3)</f>
         <v>3.6788806102983926</v>
       </c>
       <c r="G3" s="3">
@@ -4553,7 +4541,7 @@
       <c r="X3"/>
       <c r="Y3"/>
     </row>
-    <row r="4" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1997</v>
       </c>
@@ -4601,7 +4589,7 @@
       <c r="X4"/>
       <c r="Y4"/>
     </row>
-    <row r="5" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1998</v>
       </c>
@@ -4647,7 +4635,7 @@
       <c r="X5"/>
       <c r="Y5"/>
     </row>
-    <row r="6" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1999</v>
       </c>
@@ -4695,7 +4683,7 @@
       <c r="X6"/>
       <c r="Y6"/>
     </row>
-    <row r="7" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2000</v>
       </c>
@@ -4745,7 +4733,7 @@
       <c r="X7"/>
       <c r="Y7"/>
     </row>
-    <row r="8" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2001</v>
       </c>
@@ -4795,7 +4783,7 @@
       <c r="X8"/>
       <c r="Y8"/>
     </row>
-    <row r="9" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2002</v>
       </c>
@@ -4845,7 +4833,7 @@
       <c r="X9"/>
       <c r="Y9"/>
     </row>
-    <row r="10" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2003</v>
       </c>
@@ -4895,7 +4883,7 @@
       <c r="X10"/>
       <c r="Y10"/>
     </row>
-    <row r="11" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>2004</v>
       </c>
@@ -4945,7 +4933,7 @@
       <c r="X11"/>
       <c r="Y11"/>
     </row>
-    <row r="12" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>2005</v>
       </c>
@@ -4991,7 +4979,7 @@
       <c r="X12"/>
       <c r="Y12"/>
     </row>
-    <row r="13" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>2006</v>
       </c>
@@ -5039,7 +5027,7 @@
       <c r="X13"/>
       <c r="Y13"/>
     </row>
-    <row r="14" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2007</v>
       </c>
@@ -5095,7 +5083,7 @@
       <c r="X14"/>
       <c r="Y14"/>
     </row>
-    <row r="15" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>2008</v>
       </c>
@@ -5153,7 +5141,7 @@
       <c r="X15"/>
       <c r="Y15"/>
     </row>
-    <row r="16" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>2009</v>
       </c>
@@ -5207,7 +5195,7 @@
       <c r="X16"/>
       <c r="Y16"/>
     </row>
-    <row r="17" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>2010</v>
       </c>
@@ -5259,7 +5247,7 @@
       <c r="X17"/>
       <c r="Y17"/>
     </row>
-    <row r="18" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>2011</v>
       </c>
@@ -5305,7 +5293,7 @@
       <c r="X18"/>
       <c r="Y18"/>
     </row>
-    <row r="19" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>2012</v>
       </c>
@@ -5367,7 +5355,7 @@
       <c r="X19"/>
       <c r="Y19"/>
     </row>
-    <row r="20" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>2013</v>
       </c>
@@ -5431,7 +5419,7 @@
       <c r="X20"/>
       <c r="Y20"/>
     </row>
-    <row r="21" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>2014</v>
       </c>
@@ -5495,7 +5483,7 @@
       <c r="X21"/>
       <c r="Y21"/>
     </row>
-    <row r="22" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>2015</v>
       </c>
@@ -5541,7 +5529,7 @@
       <c r="X22"/>
       <c r="Y22"/>
     </row>
-    <row r="23" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
@@ -5561,7 +5549,7 @@
       <c r="X23"/>
       <c r="Y23"/>
     </row>
-    <row r="24" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
@@ -5581,7 +5569,7 @@
       <c r="X24"/>
       <c r="Y24"/>
     </row>
-    <row r="25" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="Q25"/>
       <c r="R25"/>
       <c r="S25"/>
@@ -5592,7 +5580,7 @@
       <c r="X25"/>
       <c r="Y25"/>
     </row>
-    <row r="26" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="H26" t="s">
         <v>14</v>
       </c>
@@ -5614,7 +5602,7 @@
       <c r="X26"/>
       <c r="Y26"/>
     </row>
-    <row r="27" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
@@ -5634,11 +5622,11 @@
       <c r="X27"/>
       <c r="Y27"/>
     </row>
-    <row r="28" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H28" s="20" t="s">
+    <row r="28" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="H28" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="20"/>
+      <c r="I28" s="16"/>
       <c r="J28"/>
       <c r="K28"/>
       <c r="L28"/>
@@ -5656,11 +5644,11 @@
       <c r="X28"/>
       <c r="Y28"/>
     </row>
-    <row r="29" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H29" s="17" t="s">
+    <row r="29" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
         <v>16</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29">
         <v>0.68706429069605957</v>
       </c>
       <c r="J29"/>
@@ -5680,11 +5668,11 @@
       <c r="X29"/>
       <c r="Y29"/>
     </row>
-    <row r="30" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H30" s="17" t="s">
+    <row r="30" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
         <v>17</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I30">
         <v>0.47205733954967938</v>
       </c>
       <c r="J30"/>
@@ -5704,11 +5692,11 @@
       <c r="X30"/>
       <c r="Y30"/>
     </row>
-    <row r="31" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H31" s="17" t="s">
+    <row r="31" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
         <v>18</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31">
         <v>0.40606450699338925</v>
       </c>
       <c r="J31"/>
@@ -5728,11 +5716,11 @@
       <c r="X31"/>
       <c r="Y31"/>
     </row>
-    <row r="32" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H32" s="17" t="s">
+    <row r="32" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
         <v>19</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I32">
         <v>0.34468229391791316</v>
       </c>
       <c r="J32"/>
@@ -5752,11 +5740,11 @@
       <c r="X32"/>
       <c r="Y32"/>
     </row>
-    <row r="33" spans="8:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H33" s="18" t="s">
+    <row r="33" spans="8:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I33" s="18">
+      <c r="I33" s="14">
         <v>10</v>
       </c>
       <c r="J33"/>
@@ -5776,7 +5764,7 @@
       <c r="X33"/>
       <c r="Y33"/>
     </row>
-    <row r="34" spans="8:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="8:25" ht="15" x14ac:dyDescent="0.25">
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
@@ -5796,7 +5784,7 @@
       <c r="X34"/>
       <c r="Y34"/>
     </row>
-    <row r="35" spans="8:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="8:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H35" t="s">
         <v>21</v>
       </c>
@@ -5818,21 +5806,21 @@
       <c r="X35"/>
       <c r="Y35"/>
     </row>
-    <row r="36" spans="8:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H36" s="19"/>
-      <c r="I36" s="19" t="s">
+    <row r="36" spans="8:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="H36" s="15"/>
+      <c r="I36" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="J36" s="19" t="s">
+      <c r="J36" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="K36" s="19" t="s">
+      <c r="K36" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L36" s="19" t="s">
+      <c r="L36" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="M36" s="19" t="s">
+      <c r="M36" s="15" t="s">
         <v>30</v>
       </c>
       <c r="N36"/>
@@ -5848,23 +5836,23 @@
       <c r="X36" s="10"/>
       <c r="Y36" s="10"/>
     </row>
-    <row r="37" spans="8:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H37" s="17" t="s">
+    <row r="37" spans="8:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
         <v>22</v>
       </c>
-      <c r="I37" s="17">
+      <c r="I37">
         <v>1</v>
       </c>
-      <c r="J37" s="17">
+      <c r="J37">
         <v>0.84983758430975731</v>
       </c>
-      <c r="K37" s="17">
+      <c r="K37">
         <v>0.84983758430975731</v>
       </c>
-      <c r="L37" s="17">
+      <c r="L37">
         <v>7.1531607488893192</v>
       </c>
-      <c r="M37" s="17">
+      <c r="M37">
         <v>2.8163363042363727E-2</v>
       </c>
       <c r="N37"/>
@@ -5880,21 +5868,21 @@
       <c r="X37"/>
       <c r="Y37"/>
     </row>
-    <row r="38" spans="8:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H38" s="17" t="s">
+    <row r="38" spans="8:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
         <v>23</v>
       </c>
-      <c r="I38" s="17">
+      <c r="I38">
         <v>8</v>
       </c>
-      <c r="J38" s="17">
+      <c r="J38">
         <v>0.95044706992411732</v>
       </c>
-      <c r="K38" s="17">
+      <c r="K38">
         <v>0.11880588374051466</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
+      <c r="L38"/>
+      <c r="M38"/>
       <c r="N38"/>
       <c r="O38"/>
       <c r="P38"/>
@@ -5908,19 +5896,19 @@
       <c r="X38"/>
       <c r="Y38"/>
     </row>
-    <row r="39" spans="8:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H39" s="18" t="s">
+    <row r="39" spans="8:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H39" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I39" s="18">
+      <c r="I39" s="14">
         <v>9</v>
       </c>
-      <c r="J39" s="18">
+      <c r="J39" s="14">
         <v>1.8002846542338746</v>
       </c>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
       <c r="N39"/>
       <c r="O39"/>
       <c r="P39"/>
@@ -5934,7 +5922,7 @@
       <c r="X39"/>
       <c r="Y39"/>
     </row>
-    <row r="40" spans="8:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="8:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
@@ -5954,30 +5942,30 @@
       <c r="X40"/>
       <c r="Y40"/>
     </row>
-    <row r="41" spans="8:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H41" s="19"/>
-      <c r="I41" s="19" t="s">
+    <row r="41" spans="8:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="H41" s="15"/>
+      <c r="I41" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J41" s="19" t="s">
+      <c r="J41" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="K41" s="19" t="s">
+      <c r="K41" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="L41" s="19" t="s">
+      <c r="L41" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="M41" s="19" t="s">
+      <c r="M41" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="N41" s="19" t="s">
+      <c r="N41" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="O41" s="19" t="s">
+      <c r="O41" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="P41" s="19" t="s">
+      <c r="P41" s="15" t="s">
         <v>37</v>
       </c>
       <c r="Q41"/>
@@ -5990,32 +5978,32 @@
       <c r="X41"/>
       <c r="Y41"/>
     </row>
-    <row r="42" spans="8:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H42" s="17" t="s">
+    <row r="42" spans="8:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
         <v>25</v>
       </c>
-      <c r="I42" s="17">
+      <c r="I42">
         <v>206.2611955909658</v>
       </c>
-      <c r="J42" s="17">
+      <c r="J42">
         <v>75.877647368888873</v>
       </c>
-      <c r="K42" s="17">
+      <c r="K42">
         <v>2.7183393626874151</v>
       </c>
-      <c r="L42" s="17">
+      <c r="L42">
         <v>2.6316253076586433E-2</v>
       </c>
-      <c r="M42" s="17">
+      <c r="M42">
         <v>31.287026988744458</v>
       </c>
-      <c r="N42" s="17">
+      <c r="N42">
         <v>381.23536419318714</v>
       </c>
-      <c r="O42" s="17">
+      <c r="O42">
         <v>31.287026988744458</v>
       </c>
-      <c r="P42" s="17">
+      <c r="P42">
         <v>381.23536419318714</v>
       </c>
       <c r="Q42" s="9"/>
@@ -6028,32 +6016,32 @@
       <c r="X42"/>
       <c r="Y42"/>
     </row>
-    <row r="43" spans="8:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H43" s="18" t="s">
+    <row r="43" spans="8:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H43" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I43" s="18">
+      <c r="I43" s="14">
         <v>-0.1014941457818975</v>
       </c>
-      <c r="J43" s="18">
+      <c r="J43" s="14">
         <v>3.7948271608425656E-2</v>
       </c>
-      <c r="K43" s="18">
+      <c r="K43" s="14">
         <v>-2.6745393526529613</v>
       </c>
-      <c r="L43" s="18">
+      <c r="L43" s="14">
         <v>2.8163363042363727E-2</v>
       </c>
-      <c r="M43" s="18">
+      <c r="M43" s="14">
         <v>-0.18900301703477795</v>
       </c>
-      <c r="N43" s="18">
+      <c r="N43" s="14">
         <v>-1.3985274529017044E-2</v>
       </c>
-      <c r="O43" s="18">
+      <c r="O43" s="14">
         <v>-0.18900301703477795</v>
       </c>
-      <c r="P43" s="18">
+      <c r="P43" s="14">
         <v>-1.3985274529017044E-2</v>
       </c>
       <c r="Q43"/>
@@ -6066,7 +6054,7 @@
       <c r="X43"/>
       <c r="Y43"/>
     </row>
-    <row r="44" spans="8:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="8:25" ht="15" x14ac:dyDescent="0.25">
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44"/>
@@ -6086,7 +6074,7 @@
       <c r="X44"/>
       <c r="Y44"/>
     </row>
-    <row r="45" spans="8:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="8:25" ht="15" x14ac:dyDescent="0.25">
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
@@ -6106,7 +6094,7 @@
       <c r="X45"/>
       <c r="Y45"/>
     </row>
-    <row r="46" spans="8:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="8:25" ht="15" x14ac:dyDescent="0.25">
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46"/>
@@ -6126,7 +6114,7 @@
       <c r="X46"/>
       <c r="Y46"/>
     </row>
-    <row r="47" spans="8:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="8:25" ht="15" x14ac:dyDescent="0.25">
       <c r="H47" t="s">
         <v>14</v>
       </c>
@@ -6148,7 +6136,7 @@
       <c r="X47"/>
       <c r="Y47"/>
     </row>
-    <row r="48" spans="8:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="8:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H48"/>
       <c r="I48"/>
       <c r="J48"/>
@@ -6168,11 +6156,11 @@
       <c r="X48"/>
       <c r="Y48"/>
     </row>
-    <row r="49" spans="8:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H49" s="20" t="s">
+    <row r="49" spans="8:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="H49" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I49" s="20"/>
+      <c r="I49" s="16"/>
       <c r="J49"/>
       <c r="K49"/>
       <c r="L49"/>
@@ -6190,11 +6178,11 @@
       <c r="X49"/>
       <c r="Y49"/>
     </row>
-    <row r="50" spans="8:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H50" s="17" t="s">
+    <row r="50" spans="8:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="H50" t="s">
         <v>16</v>
       </c>
-      <c r="I50" s="17">
+      <c r="I50">
         <v>0.13968888317132236</v>
       </c>
       <c r="J50"/>
@@ -6214,11 +6202,11 @@
       <c r="X50"/>
       <c r="Y50"/>
     </row>
-    <row r="51" spans="8:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H51" s="17" t="s">
+    <row r="51" spans="8:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
         <v>17</v>
       </c>
-      <c r="I51" s="17">
+      <c r="I51">
         <v>1.9512984081651346E-2</v>
       </c>
       <c r="J51"/>
@@ -6238,11 +6226,11 @@
       <c r="X51"/>
       <c r="Y51"/>
     </row>
-    <row r="52" spans="8:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H52" s="17" t="s">
+    <row r="52" spans="8:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
         <v>18</v>
       </c>
-      <c r="I52" s="17">
+      <c r="I52">
         <v>-8.9430017687054067E-2</v>
       </c>
       <c r="J52"/>
@@ -6262,11 +6250,11 @@
       <c r="X52"/>
       <c r="Y52"/>
     </row>
-    <row r="53" spans="8:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H53" s="17" t="s">
+    <row r="53" spans="8:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="H53" t="s">
         <v>19</v>
       </c>
-      <c r="I53" s="17">
+      <c r="I53">
         <v>0.46984039302667735</v>
       </c>
       <c r="J53"/>
@@ -6286,11 +6274,11 @@
       <c r="X53"/>
       <c r="Y53"/>
     </row>
-    <row r="54" spans="8:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H54" s="18" t="s">
+    <row r="54" spans="8:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H54" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I54" s="18">
+      <c r="I54" s="14">
         <v>11</v>
       </c>
       <c r="J54"/>
@@ -6310,7 +6298,7 @@
       <c r="X54"/>
       <c r="Y54"/>
     </row>
-    <row r="55" spans="8:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="8:25" ht="15" x14ac:dyDescent="0.25">
       <c r="H55"/>
       <c r="I55"/>
       <c r="J55"/>
@@ -6330,7 +6318,7 @@
       <c r="X55" s="10"/>
       <c r="Y55" s="10"/>
     </row>
-    <row r="56" spans="8:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="8:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H56" t="s">
         <v>21</v>
       </c>
@@ -6352,21 +6340,21 @@
       <c r="X56"/>
       <c r="Y56"/>
     </row>
-    <row r="57" spans="8:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H57" s="19"/>
-      <c r="I57" s="19" t="s">
+    <row r="57" spans="8:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="H57" s="15"/>
+      <c r="I57" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="J57" s="19" t="s">
+      <c r="J57" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="K57" s="19" t="s">
+      <c r="K57" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L57" s="19" t="s">
+      <c r="L57" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="M57" s="19" t="s">
+      <c r="M57" s="15" t="s">
         <v>30</v>
       </c>
       <c r="N57"/>
@@ -6382,23 +6370,23 @@
       <c r="X57"/>
       <c r="Y57"/>
     </row>
-    <row r="58" spans="8:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H58" s="17" t="s">
+    <row r="58" spans="8:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="H58" t="s">
         <v>22</v>
       </c>
-      <c r="I58" s="17">
+      <c r="I58">
         <v>1</v>
       </c>
-      <c r="J58" s="17">
+      <c r="J58">
         <v>3.9538942997304538E-2</v>
       </c>
-      <c r="K58" s="17">
+      <c r="K58">
         <v>3.9538942997304538E-2</v>
       </c>
-      <c r="L58" s="17">
+      <c r="L58">
         <v>0.1791118636796786</v>
       </c>
-      <c r="M58" s="17">
+      <c r="M58">
         <v>0.68207121755351308</v>
       </c>
       <c r="N58"/>
@@ -6414,21 +6402,21 @@
       <c r="X58"/>
       <c r="Y58"/>
     </row>
-    <row r="59" spans="8:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H59" s="17" t="s">
+    <row r="59" spans="8:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="H59" t="s">
         <v>23</v>
       </c>
-      <c r="I59" s="17">
+      <c r="I59">
         <v>9</v>
       </c>
-      <c r="J59" s="17">
+      <c r="J59">
         <v>1.9867499542751639</v>
       </c>
-      <c r="K59" s="17">
+      <c r="K59">
         <v>0.22074999491946265</v>
       </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
+      <c r="L59"/>
+      <c r="M59"/>
       <c r="N59"/>
       <c r="O59"/>
       <c r="P59"/>
@@ -6442,19 +6430,19 @@
       <c r="X59"/>
       <c r="Y59"/>
     </row>
-    <row r="60" spans="8:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H60" s="18" t="s">
+    <row r="60" spans="8:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H60" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I60" s="18">
+      <c r="I60" s="14">
         <v>10</v>
       </c>
-      <c r="J60" s="18">
+      <c r="J60" s="14">
         <v>2.0262888972724684</v>
       </c>
-      <c r="K60" s="18"/>
-      <c r="L60" s="18"/>
-      <c r="M60" s="18"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
       <c r="N60"/>
       <c r="O60"/>
       <c r="P60"/>
@@ -6468,7 +6456,7 @@
       <c r="X60"/>
       <c r="Y60"/>
     </row>
-    <row r="61" spans="8:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="8:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H61"/>
       <c r="I61"/>
       <c r="J61"/>
@@ -6488,30 +6476,30 @@
       <c r="X61"/>
       <c r="Y61"/>
     </row>
-    <row r="62" spans="8:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H62" s="19"/>
-      <c r="I62" s="19" t="s">
+    <row r="62" spans="8:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="H62" s="15"/>
+      <c r="I62" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J62" s="19" t="s">
+      <c r="J62" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="K62" s="19" t="s">
+      <c r="K62" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="L62" s="19" t="s">
+      <c r="L62" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="M62" s="19" t="s">
+      <c r="M62" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="N62" s="19" t="s">
+      <c r="N62" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="O62" s="19" t="s">
+      <c r="O62" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="P62" s="19" t="s">
+      <c r="P62" s="15" t="s">
         <v>37</v>
       </c>
       <c r="Q62"/>
@@ -6524,32 +6512,32 @@
       <c r="X62"/>
       <c r="Y62"/>
     </row>
-    <row r="63" spans="8:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="H63" s="17" t="s">
+    <row r="63" spans="8:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="H63" t="s">
         <v>25</v>
       </c>
-      <c r="I63" s="17">
+      <c r="I63">
         <v>-35.255461002204839</v>
       </c>
-      <c r="J63" s="17">
+      <c r="J63">
         <v>90.043134207701215</v>
       </c>
-      <c r="K63" s="17">
+      <c r="K63">
         <v>-0.3915396916424696</v>
       </c>
-      <c r="L63" s="17">
+      <c r="L63">
         <v>0.70450717936722351</v>
       </c>
-      <c r="M63" s="17">
+      <c r="M63">
         <v>-238.94718201095625</v>
       </c>
-      <c r="N63" s="17">
+      <c r="N63">
         <v>168.43626000654658</v>
       </c>
-      <c r="O63" s="17">
+      <c r="O63">
         <v>-238.94718201095625</v>
       </c>
-      <c r="P63" s="17">
+      <c r="P63">
         <v>168.43626000654658</v>
       </c>
       <c r="Q63"/>
@@ -6562,32 +6550,32 @@
       <c r="X63"/>
       <c r="Y63"/>
     </row>
-    <row r="64" spans="8:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H64" s="18" t="s">
+    <row r="64" spans="8:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H64" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I64" s="18">
+      <c r="I64" s="14">
         <v>1.8959033106652087E-2</v>
       </c>
-      <c r="J64" s="18">
+      <c r="J64" s="14">
         <v>4.4797523766738255E-2</v>
       </c>
-      <c r="K64" s="18">
+      <c r="K64" s="14">
         <v>0.42321609572377733</v>
       </c>
-      <c r="L64" s="18">
+      <c r="L64" s="14">
         <v>0.68207121755351408</v>
       </c>
-      <c r="M64" s="18">
+      <c r="M64" s="14">
         <v>-8.2380006157897687E-2</v>
       </c>
-      <c r="N64" s="18">
+      <c r="N64" s="14">
         <v>0.12029807237120187</v>
       </c>
-      <c r="O64" s="18">
+      <c r="O64" s="14">
         <v>-8.2380006157897687E-2</v>
       </c>
-      <c r="P64" s="18">
+      <c r="P64" s="14">
         <v>0.12029807237120187</v>
       </c>
       <c r="Q64"/>
@@ -6600,7 +6588,7 @@
       <c r="X64"/>
       <c r="Y64"/>
     </row>
-    <row r="65" spans="8:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="8:25" ht="15" x14ac:dyDescent="0.25">
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65"/>
@@ -6620,7 +6608,7 @@
       <c r="X65"/>
       <c r="Y65"/>
     </row>
-    <row r="66" spans="8:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="8:25" ht="15" x14ac:dyDescent="0.25">
       <c r="H66"/>
       <c r="I66"/>
       <c r="J66"/>
@@ -6640,7 +6628,7 @@
       <c r="X66"/>
       <c r="Y66"/>
     </row>
-    <row r="67" spans="8:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="8:25" ht="15" x14ac:dyDescent="0.25">
       <c r="H67"/>
       <c r="I67"/>
       <c r="J67"/>
@@ -6660,7 +6648,7 @@
       <c r="X67"/>
       <c r="Y67"/>
     </row>
-    <row r="68" spans="8:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="8:25" ht="15" x14ac:dyDescent="0.25">
       <c r="Q68"/>
       <c r="R68"/>
       <c r="S68"/>
@@ -6671,7 +6659,7 @@
       <c r="X68"/>
       <c r="Y68"/>
     </row>
-    <row r="69" spans="8:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="8:25" ht="15" x14ac:dyDescent="0.25">
       <c r="Q69" s="10"/>
       <c r="R69" s="10"/>
       <c r="S69" s="10"/>
@@ -6682,7 +6670,7 @@
       <c r="X69"/>
       <c r="Y69"/>
     </row>
-    <row r="70" spans="8:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="8:25" ht="15" x14ac:dyDescent="0.25">
       <c r="Q70"/>
       <c r="R70"/>
       <c r="S70"/>
@@ -6693,7 +6681,7 @@
       <c r="X70"/>
       <c r="Y70"/>
     </row>
-    <row r="71" spans="8:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="8:25" ht="15" x14ac:dyDescent="0.25">
       <c r="Q71"/>
       <c r="R71"/>
       <c r="S71"/>
@@ -6704,7 +6692,7 @@
       <c r="X71"/>
       <c r="Y71"/>
     </row>
-    <row r="72" spans="8:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="8:25" ht="15" x14ac:dyDescent="0.25">
       <c r="Q72"/>
       <c r="R72"/>
       <c r="S72"/>
@@ -6715,7 +6703,7 @@
       <c r="X72"/>
       <c r="Y72"/>
     </row>
-    <row r="73" spans="8:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="8:25" ht="15" x14ac:dyDescent="0.25">
       <c r="Q73"/>
       <c r="R73"/>
       <c r="S73"/>
@@ -6726,7 +6714,7 @@
       <c r="X73"/>
       <c r="Y73"/>
     </row>
-    <row r="74" spans="8:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="8:25" ht="15" x14ac:dyDescent="0.25">
       <c r="Q74" s="10"/>
       <c r="R74" s="10"/>
       <c r="S74" s="10"/>
@@ -6737,7 +6725,7 @@
       <c r="X74" s="10"/>
       <c r="Y74" s="10"/>
     </row>
-    <row r="75" spans="8:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="8:25" ht="15" x14ac:dyDescent="0.25">
       <c r="Q75"/>
       <c r="R75"/>
       <c r="S75"/>
@@ -6748,7 +6736,7 @@
       <c r="X75"/>
       <c r="Y75"/>
     </row>
-    <row r="76" spans="8:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="8:25" ht="15" x14ac:dyDescent="0.25">
       <c r="Q76"/>
       <c r="R76"/>
       <c r="S76"/>
@@ -6759,7 +6747,7 @@
       <c r="X76"/>
       <c r="Y76"/>
     </row>
-    <row r="77" spans="8:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="8:25" ht="15" x14ac:dyDescent="0.25">
       <c r="Q77"/>
       <c r="R77"/>
       <c r="S77"/>
@@ -6770,7 +6758,7 @@
       <c r="X77"/>
       <c r="Y77"/>
     </row>
-    <row r="78" spans="8:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="8:25" ht="15" x14ac:dyDescent="0.25">
       <c r="Q78"/>
       <c r="R78"/>
       <c r="S78"/>
@@ -6781,7 +6769,7 @@
       <c r="X78"/>
       <c r="Y78"/>
     </row>
-    <row r="79" spans="8:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="8:25" ht="15" x14ac:dyDescent="0.25">
       <c r="Q79"/>
       <c r="R79"/>
       <c r="S79"/>

--- a/week 6 (Lab 3- Time series & regression)/trends_solved.xlsx
+++ b/week 6 (Lab 3- Time series & regression)/trends_solved.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="250" documentId="8_{EE41B2C5-BCCF-4856-96F1-65C2913C628B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8785C392-FADD-4924-87F3-B542387DC3AF}"/>
   <bookViews>
-    <workbookView xWindow="8745" yWindow="4065" windowWidth="18000" windowHeight="9360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="25440" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Part 1" sheetId="1" r:id="rId1"/>
@@ -3247,7 +3247,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4428,7 +4428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
